--- a/Burndown Chart.xlsx
+++ b/Burndown Chart.xlsx
@@ -147,7 +147,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -161,6 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -190,10 +190,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -237,6 +233,43 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Skattat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -247,11 +280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="96423936"/>
-        <c:axId val="96337216"/>
+        <c:axId val="53303296"/>
+        <c:axId val="51779776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96423936"/>
+        <c:axId val="53303296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -260,7 +293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96337216"/>
+        <c:crossAx val="51779776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -268,7 +301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96337216"/>
+        <c:axId val="51779776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -279,7 +312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96423936"/>
+        <c:crossAx val="53303296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -626,116 +659,116 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>15</v>
       </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>7.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -744,7 +777,7 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -752,7 +785,7 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -760,7 +793,7 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -768,7 +801,7 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -776,7 +809,7 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
